--- a/src/data/metadata.xlsx
+++ b/src/data/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/min_a/lda/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43368B68-1FDF-BB4B-9A19-9CD6D9C80CA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D029906-D118-4F4B-970E-C7708662A22B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="1142">
   <si>
     <t>page</t>
   </si>
@@ -3478,6 +3478,10 @@
   </si>
   <si>
     <t>団子坂,地名由来,千駄木山,森鴎外,千朶山房,ロバート・フォーチュン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#seeAlso</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -7563,10 +7567,10 @@
   <dimension ref="A1:AJ450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="D1:Q1048576"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -7681,6 +7685,9 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="20">
+      <c r="A2" s="22" t="s">
+        <v>1141</v>
+      </c>
       <c r="B2" s="21" t="s">
         <v>1124</v>
       </c>
@@ -7778,6 +7785,9 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="20">
+      <c r="A3" s="26" t="s">
+        <v>1126</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>1122</v>
       </c>
@@ -32522,6 +32532,7 @@
     <hyperlink ref="T2" r:id="rId5" display="http://purl.org/dc/terms/creator" xr:uid="{2D0E1F36-F0AB-854D-857C-FCE91A6A282F}"/>
     <hyperlink ref="D2:S2" r:id="rId6" display="http://purl.org/dc/terms/creator" xr:uid="{F82AE87E-8093-9A4C-9E25-CE8242CCA725}"/>
     <hyperlink ref="AI2" r:id="rId7" xr:uid="{3F86BDAB-F3BF-5345-A0F4-08B99EDC7A3F}"/>
+    <hyperlink ref="A2" r:id="rId8" location="seeAlso" xr:uid="{8E765127-F91E-2F4B-A55B-C074836B3FDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
